--- a/inst/models/example_markov/model.xlsx
+++ b/inst/models/example_markov/model.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t xml:space="preserve">setting</t>
   </si>
@@ -438,6 +438,36 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">seritinib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seritinib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volantor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volantor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cendralimab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cendralimab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma(mean = 5000, sd = 1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lognormal(mean = 0.4, sd = 0.08)</t>
   </si>
 </sst>
 </file>
@@ -929,18 +959,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1596,7 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
@@ -1580,7 +1618,7 @@
         <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -1602,7 +1640,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1622,7 +1660,7 @@
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -1764,6 +1802,50 @@
         <v>57</v>
       </c>
       <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/models/example_markov/model.xlsx
+++ b/inst/models/example_markov/model.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t xml:space="preserve">setting</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t xml:space="preserve">lognormal(mean = 0.4, sd = 0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035</t>
   </si>
 </sst>
 </file>
@@ -860,7 +863,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
@@ -868,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">

--- a/inst/models/example_markov/model.xlsx
+++ b/inst/models/example_markov/model.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="strategies" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="groups" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="states" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="transitions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="values" sheetId="7" state="visible" r:id="rId6"/>
-    <sheet name="summaries" sheetId="8" state="visible" r:id="rId7"/>
-    <sheet name="variables" sheetId="9" state="visible" r:id="rId8"/>
-    <sheet name="multivariate_sampling" sheetId="10" state="visible" r:id="rId9"/>
-    <sheet name="multivariate_sampling_variables" sheetId="11" state="visible" r:id="rId10"/>
+    <sheet name="settings" sheetId="12" state="visible" r:id="rId10"/>
+    <sheet name="strategies" sheetId="2" state="visible" r:id="rId1"/>
+    <sheet name="groups" sheetId="3" state="visible" r:id="rId2"/>
+    <sheet name="states" sheetId="4" state="visible" r:id="rId3"/>
+    <sheet name="transitions" sheetId="5" state="visible" r:id="rId4"/>
+    <sheet name="values" sheetId="7" state="visible" r:id="rId5"/>
+    <sheet name="summaries" sheetId="8" state="visible" r:id="rId6"/>
+    <sheet name="variables" sheetId="9" state="visible" r:id="rId7"/>
+    <sheet name="multivariate_sampling" sheetId="10" state="visible" r:id="rId8"/>
+    <sheet name="multivariate_sampling_variables" sheetId="11" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -804,82 +804,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -898,44 +850,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -959,29 +949,39 @@
       <c r="B1" t="s">
         <v>19</v>
       </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>107</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
+        <v>109</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1006,38 +1006,66 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D2" t="b">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1056,16 +1084,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -1073,55 +1098,98 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1140,112 +1208,100 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
+      <c r="D2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
+      <c r="D6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
+      <c r="D7" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1267,98 +1323,40 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1382,37 +1380,419 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100000</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1433,422 +1813,22 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
         <v>115</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20"/>
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1866,13 +1846,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1880,10 +1863,27 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
